--- a/dist.xlsx
+++ b/dist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>dist_92</t>
   </si>
@@ -26,15 +26,6 @@
   </si>
   <si>
     <t>dist_15</t>
-  </si>
-  <si>
-    <t>AGR</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>SERV</t>
   </si>
 </sst>
 </file>
@@ -413,54 +404,54 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64353.36223937756</v>
+        <v>0.5277029371326343</v>
       </c>
       <c r="C2">
-        <v>63953.10187238733</v>
+        <v>0.713769650776678</v>
       </c>
       <c r="D2">
-        <v>52486.46724391654</v>
+        <v>2.245834536358817</v>
       </c>
       <c r="E2">
-        <v>46081.80114034318</v>
+        <v>9.371964718090908</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>13422.41675164225</v>
+        <v>-0.7306177893467005</v>
       </c>
       <c r="C3">
-        <v>13059.93840467361</v>
+        <v>0.1275925844543728</v>
       </c>
       <c r="D3">
-        <v>16113.73973879716</v>
+        <v>1.52174404456073</v>
       </c>
       <c r="E3">
-        <v>17391.59778025296</v>
+        <v>8.441341842428013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>9479.312405701559</v>
+        <v>-0.7368132673252248</v>
       </c>
       <c r="C4">
-        <v>10685.84140123083</v>
+        <v>0.1316879261151271</v>
       </c>
       <c r="D4">
-        <v>10083.78429855749</v>
+        <v>1.648831149424334</v>
       </c>
       <c r="E4">
-        <v>10650.87804864667</v>
+        <v>8.664195308020915</v>
       </c>
     </row>
   </sheetData>

--- a/dist.xlsx
+++ b/dist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>dist_92</t>
   </si>
@@ -25,7 +25,49 @@
     <t>dist_2</t>
   </si>
   <si>
+    <t>dist_3</t>
+  </si>
+  <si>
+    <t>dist_4</t>
+  </si>
+  <si>
+    <t>dist_5</t>
+  </si>
+  <si>
+    <t>dist_6</t>
+  </si>
+  <si>
+    <t>dist_7</t>
+  </si>
+  <si>
+    <t>dist_8</t>
+  </si>
+  <si>
+    <t>dist_9</t>
+  </si>
+  <si>
+    <t>dist_11</t>
+  </si>
+  <si>
+    <t>dist_12</t>
+  </si>
+  <si>
+    <t>dist_13</t>
+  </si>
+  <si>
+    <t>dist_14</t>
+  </si>
+  <si>
     <t>dist_15</t>
+  </si>
+  <si>
+    <t>AGR</t>
+  </si>
+  <si>
+    <t>SERV</t>
+  </si>
+  <si>
+    <t>IND</t>
   </si>
 </sst>
 </file>
@@ -383,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,56 +444,188 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>0.5277029371326343</v>
+        <v>0.5277029231239477</v>
       </c>
       <c r="C2">
-        <v>0.713769650776678</v>
+        <v>0.7137696311326472</v>
       </c>
       <c r="D2">
-        <v>2.245834536358817</v>
+        <v>2.284163679869538</v>
       </c>
       <c r="E2">
-        <v>9.371964718090908</v>
+        <v>3.919038203571453</v>
+      </c>
+      <c r="F2">
+        <v>7.775344061997862</v>
+      </c>
+      <c r="G2">
+        <v>10.23628757426089</v>
+      </c>
+      <c r="H2">
+        <v>19.12801108427102</v>
+      </c>
+      <c r="I2">
+        <v>11.51357664958822</v>
+      </c>
+      <c r="J2">
+        <v>10.10867124598889</v>
+      </c>
+      <c r="K2">
+        <v>16.68201444639862</v>
+      </c>
+      <c r="L2">
+        <v>13.60858282590096</v>
+      </c>
+      <c r="M2">
+        <v>14.8490258001516</v>
+      </c>
+      <c r="N2">
+        <v>17.61500276533826</v>
+      </c>
+      <c r="O2">
+        <v>16.09603967481096</v>
+      </c>
+      <c r="P2">
+        <v>9.409733963333611</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>-0.7306177893467005</v>
+        <v>-0.7306177991185845</v>
       </c>
       <c r="C3">
-        <v>0.1275925844543728</v>
+        <v>0.1275925638968537</v>
       </c>
       <c r="D3">
-        <v>1.52174404456073</v>
+        <v>1.518102385805818</v>
       </c>
       <c r="E3">
-        <v>8.441341842428013</v>
+        <v>2.755898940789486</v>
+      </c>
+      <c r="F3">
+        <v>5.227671123817163</v>
+      </c>
+      <c r="G3">
+        <v>7.313001760923328</v>
+      </c>
+      <c r="H3">
+        <v>14.65464406909387</v>
+      </c>
+      <c r="I3">
+        <v>8.731101868819128</v>
+      </c>
+      <c r="J3">
+        <v>7.906493064905668</v>
+      </c>
+      <c r="K3">
+        <v>13.26950262765958</v>
+      </c>
+      <c r="L3">
+        <v>10.6463835018649</v>
+      </c>
+      <c r="M3">
+        <v>12.32884929588028</v>
+      </c>
+      <c r="N3">
+        <v>14.94153059526142</v>
+      </c>
+      <c r="O3">
+        <v>14.36720223946127</v>
+      </c>
+      <c r="P3">
+        <v>8.437436882827582</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>-0.7368132673252248</v>
+        <v>-0.7368132747944542</v>
       </c>
       <c r="C4">
-        <v>0.1316879261151271</v>
+        <v>0.1316879085952418</v>
       </c>
       <c r="D4">
-        <v>1.648831149424334</v>
+        <v>1.645005964600523</v>
       </c>
       <c r="E4">
-        <v>8.664195308020915</v>
+        <v>3.245351374956348</v>
+      </c>
+      <c r="F4">
+        <v>6.179745977455662</v>
+      </c>
+      <c r="G4">
+        <v>7.771909463406301</v>
+      </c>
+      <c r="H4">
+        <v>15.3242943331464</v>
+      </c>
+      <c r="I4">
+        <v>9.129589653590873</v>
+      </c>
+      <c r="J4">
+        <v>8.107907174873766</v>
+      </c>
+      <c r="K4">
+        <v>13.35136708594353</v>
+      </c>
+      <c r="L4">
+        <v>11.32729876597954</v>
+      </c>
+      <c r="M4">
+        <v>12.4658059610286</v>
+      </c>
+      <c r="N4">
+        <v>15.26248537179667</v>
+      </c>
+      <c r="O4">
+        <v>14.67874441743525</v>
+      </c>
+      <c r="P4">
+        <v>8.660198180422643</v>
       </c>
     </row>
   </sheetData>
